--- a/salary_analysis/salary_breakdown_position_division.xlsx
+++ b/salary_analysis/salary_breakdown_position_division.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f55ed08a9185297/Documents/GitHub/dbk_datadesk/salary_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_7F223FCD8F79A8D366075C52F37BD2722AC8361A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800F59EB-E95E-495A-9CCD-2199D0CF0C3A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_7F223FCD8F79A8D366075C52F37BD2722AC8361A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85892AD2-191A-4F64-9DF8-933A371A0F23}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,11 +499,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
     <col min="3" max="3" width="56.08984375" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" customWidth="1"/>
   </cols>
